--- a/CNN_classification_project/training_process_data/mobilenetv3_small.xlsx
+++ b/CNN_classification_project/training_process_data/mobilenetv3_small.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,16 +440,28 @@
       <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5923043666234328</v>
+        <v>0.6048648648648649</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01068253461488954</v>
+        <v>0.01060845582871824</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5485961123110151</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01119851164889902</v>
       </c>
     </row>
     <row r="3">
@@ -457,10 +469,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7784262862083874</v>
+        <v>0.7040540540540541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007493980779722043</v>
+        <v>0.008539576820425086</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5485961123110151</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01116756003824733</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +486,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8571119757890185</v>
+        <v>0.8259459459459459</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005097253448613732</v>
+        <v>0.006074244230985642</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5485961123110151</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01119144457205325</v>
       </c>
     </row>
     <row r="5">
@@ -479,10 +503,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.904885430177259</v>
+        <v>0.8837837837837837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003705459288122125</v>
+        <v>0.004194054067940325</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5485961123110151</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.01148715924238283</v>
       </c>
     </row>
     <row r="6">
@@ -490,10 +520,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9275832252485949</v>
+        <v>0.9243243243243243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002711813131059809</v>
+        <v>0.002918701683347289</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5485961123110151</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0122644213826816</v>
       </c>
     </row>
     <row r="7">
@@ -501,10 +537,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9479031560743623</v>
+        <v>0.9589189189189189</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002068152552139589</v>
+        <v>0.001772176407378267</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5485961123110151</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01407712800971375</v>
       </c>
     </row>
     <row r="8">
@@ -512,10 +554,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9578469520103762</v>
+        <v>0.9583783783783784</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001760295431994923</v>
+        <v>0.001714874260328912</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5485961123110151</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.01465133482642617</v>
       </c>
     </row>
     <row r="9">
@@ -523,10 +571,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9699524427150886</v>
+        <v>0.9740540540540541</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001405331502449922</v>
+        <v>0.001178445825856682</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5485961123110151</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02001673407997477</v>
       </c>
     </row>
     <row r="10">
@@ -534,10 +588,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9664937310851708</v>
+        <v>0.9756756756756757</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001345104770634245</v>
+        <v>0.001084092231593221</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5485961123110151</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.02077377376752075</v>
       </c>
     </row>
     <row r="11">
@@ -545,10 +605,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9777345438824038</v>
+        <v>0.9791891891891892</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009471152114274823</v>
+        <v>0.0008289957459311228</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5485961123110151</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.02423635453436339</v>
       </c>
     </row>
     <row r="12">
@@ -556,10 +622,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9744920017293558</v>
+        <v>0.9840540540540541</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001028569311530068</v>
+        <v>0.0006321089162264724</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5647948164146869</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.02464418624956201</v>
       </c>
     </row>
     <row r="13">
@@ -567,10 +639,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9788153912667531</v>
+        <v>0.9789189189189189</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0008813414935178014</v>
+        <v>0.0009023169441954107</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6727861771058316</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01613410071471855</v>
       </c>
     </row>
     <row r="14">
@@ -578,10 +656,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9853004755728492</v>
+        <v>0.9851351351351352</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0007327368179049506</v>
+        <v>0.000643570998029129</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7732181425485961</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.01170588550248362</v>
       </c>
     </row>
     <row r="15">
@@ -589,10 +673,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9848681366191094</v>
+        <v>0.9889189189189189</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0006511425445443345</v>
+        <v>0.0005600603935434609</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7915766738660908</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01331996451057574</v>
       </c>
     </row>
     <row r="16">
@@ -600,10 +690,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9829226113272805</v>
+        <v>0.9867567567567568</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0007284999574110608</v>
+        <v>0.0005668846076681606</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8012958963282938</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01376015102374116</v>
       </c>
     </row>
     <row r="17">
@@ -611,10 +707,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9833549502810203</v>
+        <v>0.9835135135135135</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0007004643574202417</v>
+        <v>0.0007304975376590281</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8002159827213823</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0139572201357032</v>
       </c>
     </row>
     <row r="18">
@@ -622,10 +724,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9835711197578901</v>
+        <v>0.9878378378378379</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0006940093318663192</v>
+        <v>0.0004542457760701812</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7948164146868251</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01672934391586106</v>
       </c>
     </row>
     <row r="19">
@@ -633,10 +741,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9878945092952875</v>
+        <v>0.9889189189189189</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0005364793767911811</v>
+        <v>0.0004660290354277586</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7775377969762419</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.01925463958383894</v>
       </c>
     </row>
     <row r="20">
@@ -644,10 +758,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9878945092952875</v>
+        <v>0.9894594594594595</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0005510106914525934</v>
+        <v>0.0004946397505448879</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7926565874730022</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01683246613063771</v>
       </c>
     </row>
     <row r="21">
@@ -655,10 +775,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9785992217898832</v>
+        <v>0.9894594594594595</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0009170154791479947</v>
+        <v>0.0004893299834047621</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7861771058315334</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01690326383252896</v>
       </c>
     </row>
     <row r="22">
@@ -666,10 +792,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9907047124945958</v>
+        <v>0.9905405405405405</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004076868249063162</v>
+        <v>0.0004586103093351011</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8056155507559395</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01551355611428329</v>
       </c>
     </row>
     <row r="23">
@@ -677,10 +809,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9891915261565067</v>
+        <v>0.9881081081081081</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00052002788007295</v>
+        <v>0.0004794625751044903</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7937365010799136</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01887776083101722</v>
       </c>
     </row>
     <row r="24">
@@ -688,10 +826,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9853004755728492</v>
+        <v>0.985945945945946</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0006733548251080129</v>
+        <v>0.0005486222204274019</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.785097192224622</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01879108357635481</v>
       </c>
     </row>
     <row r="25">
@@ -699,10 +843,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9937310851707739</v>
+        <v>0.9889189189189189</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0003224993453956911</v>
+        <v>0.0004374034932462146</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.796976241900648</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.02151170591813699</v>
       </c>
     </row>
     <row r="26">
@@ -710,285 +860,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9809770860354518</v>
+        <v>0.9891891891891892</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0008790621942575978</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.9874621703415478</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0005977845811297158</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.9850843060959793</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.0006573860152228745</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.9891915261565067</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.0003847713558738339</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.9898400345871163</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.0004482031240299307</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.9885430177258971</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.0005011465109796559</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.9911370514483355</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0004032186382719736</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.9939472546476438</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.0002330041390424836</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.993514915693904</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.0004009902844805644</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.9928664072632944</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.0004114356604867288</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.9874621703415478</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.0005550761424141731</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.9924340683095547</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.0003304129749940872</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.9857328145265889</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.0006145006055261987</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.9922178988326849</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.0005765846071849785</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.9671422395157804</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.001624161306884618</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.9824902723735408</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.0008095797990644862</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.9932987462170342</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.0003252237701017576</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.9941634241245136</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.0003760701431469529</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.9891915261565067</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.0005814660228636853</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.9917855598789451</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.0003731966905594915</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.9954604409857328</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.000220592141077467</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.9987029831387808</v>
-      </c>
-      <c r="C47" t="n">
-        <v>7.824236175744316e-05</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.9974059662775616</v>
-      </c>
-      <c r="C48" t="n">
-        <v>9.539374920280266e-05</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.9971897968006918</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.0001115562442018876</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.9954604409857328</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.0003204084127006744</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.9961089494163424</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.0002026632601732139</v>
+        <v>0.0004569185827780087</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8077753779697624</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01604111379990052</v>
       </c>
     </row>
   </sheetData>
